--- a/data analysis/Exercise files-071718/5_Distributions/Heights Of Men.xlsx
+++ b/data analysis/Exercise files-071718/5_Distributions/Heights Of Men.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmullen/Dropbox/data analysis master/Exercises/5_Distributions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheagraw/Google Drive/training/Data Analysis/Exercise files-071718/5_Distributions/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4AADFC-7EE7-724E-BDBB-F5A635B64A7E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="460" windowWidth="27900" windowHeight="14780" tabRatio="500"/>
+    <workbookView xWindow="1180" yWindow="520" windowWidth="27340" windowHeight="15440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Data on the height of men in the United States</t>
   </si>
@@ -41,20 +42,23 @@
     <t>AVERAGE</t>
   </si>
   <si>
-    <t>Std Dev</t>
+    <t>STD DEV</t>
   </si>
   <si>
-    <t>Bins</t>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Draw Frequency Plot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -62,13 +66,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -86,7 +104,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -99,1045 +117,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000">
-                <a:solidFill>
-                  <a:srgbClr val="002060"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Heights of Men in the US</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$I$11:$I$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>76.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>80.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$J$11:$J$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>129.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>272.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>470.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>698.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>973.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1163.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1297.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1298.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1111.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>912.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>670.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>431.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>269.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>117.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="17"/>
-        <c:overlap val="-27"/>
-        <c:axId val="496224864"/>
-        <c:axId val="496227344"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="496224864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Height in inches</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="496227344"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="496227344"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="496224864"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>971550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1402,11 +386,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10003"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I10003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11:J31"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1415,7 +399,7 @@
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1423,7 +407,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1431,7 +415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1441,15 +425,14 @@
       <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="1">
-        <f>AVERAGE(B4:B10003)</f>
-        <v>69.974449999999976</v>
+      <c r="F4" t="s">
+        <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1459,394 +442,224 @@
       <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="F5">
-        <f>_xlfn.STDEV.P(B4:B10003)</f>
-        <v>3.0120647731248842</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f t="array" ref="J5:J32">FREQUENCY(B4:B10003,I5:I32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>72</v>
       </c>
-      <c r="I6">
-        <v>55</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" s="1">
         <v>66.900000000000006</v>
       </c>
-      <c r="I7">
-        <v>56</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" s="1">
         <v>67.2</v>
       </c>
-      <c r="I8">
-        <v>57</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>73.2</v>
       </c>
-      <c r="I9">
-        <v>58</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" s="1">
         <v>69.599999999999994</v>
       </c>
-      <c r="I10">
-        <v>59</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" s="1">
         <v>70.3</v>
       </c>
-      <c r="I11">
-        <v>60</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" s="1">
         <v>72</v>
       </c>
-      <c r="I12">
-        <v>61</v>
-      </c>
-      <c r="J12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" s="1">
         <v>74.2</v>
       </c>
-      <c r="I13">
-        <v>62</v>
-      </c>
-      <c r="J13">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" s="1">
         <v>67.2</v>
       </c>
-      <c r="I14">
-        <v>63</v>
-      </c>
-      <c r="J14">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" s="1">
         <v>70.8</v>
       </c>
-      <c r="I15">
-        <v>64</v>
-      </c>
-      <c r="J15">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" s="1">
         <v>70.400000000000006</v>
       </c>
-      <c r="I16">
-        <v>65</v>
-      </c>
-      <c r="J16">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" s="1">
         <v>69.8</v>
       </c>
-      <c r="I17">
-        <v>66</v>
-      </c>
-      <c r="J17">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" s="1">
         <v>69.5</v>
       </c>
-      <c r="I18">
-        <v>67</v>
-      </c>
-      <c r="J18">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" s="1">
         <v>73.7</v>
       </c>
-      <c r="I19">
-        <v>68</v>
-      </c>
-      <c r="J19">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" s="1">
         <v>69.7</v>
       </c>
-      <c r="I20">
-        <v>69</v>
-      </c>
-      <c r="J20">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" s="1">
         <v>67.2</v>
       </c>
-      <c r="I21">
-        <v>70</v>
-      </c>
-      <c r="J21">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" s="1">
         <v>66.8</v>
       </c>
-      <c r="I22">
-        <v>71</v>
-      </c>
-      <c r="J22">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" s="1">
         <v>71.3</v>
       </c>
-      <c r="I23">
-        <v>72</v>
-      </c>
-      <c r="J23">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" s="1">
         <v>66</v>
       </c>
-      <c r="I24">
-        <v>73</v>
-      </c>
-      <c r="J24">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" s="1">
         <v>73.599999999999994</v>
       </c>
-      <c r="I25">
-        <v>74</v>
-      </c>
-      <c r="J25">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26" s="1">
         <v>69</v>
       </c>
-      <c r="I26">
-        <v>75</v>
-      </c>
-      <c r="J26">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27" s="1">
         <v>65.2</v>
       </c>
-      <c r="I27">
-        <v>76</v>
-      </c>
-      <c r="J27">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28" s="1">
         <v>72.599999999999994</v>
       </c>
-      <c r="I28">
-        <v>77</v>
-      </c>
-      <c r="J28">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
       <c r="B29" s="1">
         <v>67.2</v>
       </c>
-      <c r="I29">
-        <v>78</v>
-      </c>
-      <c r="J29">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
       <c r="B30" s="1">
         <v>70.900000000000006</v>
       </c>
-      <c r="I30">
-        <v>79</v>
-      </c>
-      <c r="J30">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
       <c r="B31" s="1">
         <v>70.8</v>
       </c>
-      <c r="I31">
-        <v>80</v>
-      </c>
-      <c r="J31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
       <c r="B32" s="1">
         <v>72.599999999999994</v>
-      </c>
-      <c r="I32">
-        <v>90</v>
-      </c>
-      <c r="J32">
-        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -81622,6 +80435,6 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>